--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H2">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I2">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J2">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N2">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O2">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P2">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q2">
-        <v>52.77815949916279</v>
+        <v>88.24423361734732</v>
       </c>
       <c r="R2">
-        <v>52.77815949916279</v>
+        <v>794.1981025561259</v>
       </c>
       <c r="S2">
-        <v>0.02677986443482637</v>
+        <v>0.03750375001189258</v>
       </c>
       <c r="T2">
-        <v>0.02677986443482637</v>
+        <v>0.03750375001189258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H3">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I3">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J3">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N3">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O3">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P3">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q3">
-        <v>20.54573022629505</v>
+        <v>25.036810722368</v>
       </c>
       <c r="R3">
-        <v>20.54573022629505</v>
+        <v>225.331296501312</v>
       </c>
       <c r="S3">
-        <v>0.01042499161387816</v>
+        <v>0.01064063057647967</v>
       </c>
       <c r="T3">
-        <v>0.01042499161387816</v>
+        <v>0.01064063057647967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H4">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I4">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J4">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N4">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O4">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P4">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q4">
-        <v>35.38664324566061</v>
+        <v>47.32766209832133</v>
       </c>
       <c r="R4">
-        <v>35.38664324566061</v>
+        <v>425.948958884892</v>
       </c>
       <c r="S4">
-        <v>0.01795533451554687</v>
+        <v>0.02011422996407369</v>
       </c>
       <c r="T4">
-        <v>0.01795533451554687</v>
+        <v>0.02011422996407369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H5">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I5">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J5">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N5">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O5">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P5">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q5">
-        <v>61.01816349972742</v>
+        <v>75.34108007590488</v>
       </c>
       <c r="R5">
-        <v>61.01816349972742</v>
+        <v>678.0697206831438</v>
       </c>
       <c r="S5">
-        <v>0.03096087779663275</v>
+        <v>0.03201991696188586</v>
       </c>
       <c r="T5">
-        <v>0.03096087779663275</v>
+        <v>0.03201991696188585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H6">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I6">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J6">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N6">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O6">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P6">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q6">
-        <v>88.52927411137463</v>
+        <v>109.8982988013442</v>
       </c>
       <c r="R6">
-        <v>88.52927411137463</v>
+        <v>989.0846892120979</v>
       </c>
       <c r="S6">
-        <v>0.04492013328456071</v>
+        <v>0.04670671562348581</v>
       </c>
       <c r="T6">
-        <v>0.04492013328456071</v>
+        <v>0.04670671562348581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H7">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I7">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J7">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N7">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O7">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P7">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q7">
-        <v>38.26945598287163</v>
+        <v>57.62049406119868</v>
       </c>
       <c r="R7">
-        <v>38.26945598287163</v>
+        <v>518.584446550788</v>
       </c>
       <c r="S7">
-        <v>0.01941808605948289</v>
+        <v>0.02448867780079086</v>
       </c>
       <c r="T7">
-        <v>0.01941808605948289</v>
+        <v>0.02448867780079086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.3252857026496</v>
+        <v>9.535088</v>
       </c>
       <c r="H8">
-        <v>9.3252857026496</v>
+        <v>28.605264</v>
       </c>
       <c r="I8">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J8">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N8">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O8">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P8">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q8">
-        <v>86.73981939996852</v>
+        <v>121.956950704304</v>
       </c>
       <c r="R8">
-        <v>86.73981939996852</v>
+        <v>1097.612556338736</v>
       </c>
       <c r="S8">
-        <v>0.04401215629107581</v>
+        <v>0.05183163594870615</v>
       </c>
       <c r="T8">
-        <v>0.04401215629107581</v>
+        <v>0.05183163594870616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.3252857026496</v>
+        <v>9.535088</v>
       </c>
       <c r="H9">
-        <v>9.3252857026496</v>
+        <v>28.605264</v>
       </c>
       <c r="I9">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J9">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N9">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O9">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P9">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q9">
-        <v>33.76648496614546</v>
+        <v>34.601842702848</v>
       </c>
       <c r="R9">
-        <v>33.76648496614546</v>
+        <v>311.416584325632</v>
       </c>
       <c r="S9">
-        <v>0.01713325925752152</v>
+        <v>0.01470576382708065</v>
       </c>
       <c r="T9">
-        <v>0.01713325925752152</v>
+        <v>0.01470576382708065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.3252857026496</v>
+        <v>9.535088</v>
       </c>
       <c r="H10">
-        <v>9.3252857026496</v>
+        <v>28.605264</v>
       </c>
       <c r="I10">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J10">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N10">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O10">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P10">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q10">
-        <v>58.15722021053818</v>
+        <v>65.408663171168</v>
       </c>
       <c r="R10">
-        <v>58.15722021053818</v>
+        <v>588.677968540512</v>
       </c>
       <c r="S10">
-        <v>0.02950922290439595</v>
+        <v>0.02779864532362302</v>
       </c>
       <c r="T10">
-        <v>0.02950922290439595</v>
+        <v>0.02779864532362302</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.3252857026496</v>
+        <v>9.535088</v>
       </c>
       <c r="H11">
-        <v>9.3252857026496</v>
+        <v>28.605264</v>
       </c>
       <c r="I11">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J11">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N11">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O11">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P11">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q11">
-        <v>100.2820964639372</v>
+        <v>104.1242924571093</v>
       </c>
       <c r="R11">
-        <v>100.2820964639372</v>
+        <v>937.1186321139838</v>
       </c>
       <c r="S11">
-        <v>0.05088356574061702</v>
+        <v>0.04425276615138458</v>
       </c>
       <c r="T11">
-        <v>0.05088356574061702</v>
+        <v>0.04425276615138456</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.3252857026496</v>
+        <v>9.535088</v>
       </c>
       <c r="H12">
-        <v>9.3252857026496</v>
+        <v>28.605264</v>
       </c>
       <c r="I12">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J12">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N12">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O12">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P12">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q12">
-        <v>145.496040803635</v>
+        <v>151.8837079771253</v>
       </c>
       <c r="R12">
-        <v>145.496040803635</v>
+        <v>1366.953371794128</v>
       </c>
       <c r="S12">
-        <v>0.07382531496929366</v>
+        <v>0.06455049107858787</v>
       </c>
       <c r="T12">
-        <v>0.07382531496929366</v>
+        <v>0.06455049107858789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.3252857026496</v>
+        <v>9.535088</v>
       </c>
       <c r="H13">
-        <v>9.3252857026496</v>
+        <v>28.605264</v>
       </c>
       <c r="I13">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J13">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N13">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O13">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P13">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q13">
-        <v>62.89506363976157</v>
+        <v>79.63375583555202</v>
       </c>
       <c r="R13">
-        <v>62.89506363976157</v>
+        <v>716.703802519968</v>
       </c>
       <c r="S13">
-        <v>0.03191322497555661</v>
+        <v>0.03384430176271061</v>
       </c>
       <c r="T13">
-        <v>0.03191322497555661</v>
+        <v>0.0338443017627106</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.02672108731401</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H14">
-        <v>7.02672108731401</v>
+        <v>23.811736</v>
       </c>
       <c r="I14">
-        <v>0.1863261639207882</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J14">
-        <v>0.1863261639207882</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N14">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O14">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P14">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q14">
-        <v>65.35955439031653</v>
+        <v>101.5200109160293</v>
       </c>
       <c r="R14">
-        <v>65.35955439031653</v>
+        <v>913.6800982442638</v>
       </c>
       <c r="S14">
-        <v>0.03316371814976047</v>
+        <v>0.04314594795065343</v>
       </c>
       <c r="T14">
-        <v>0.03316371814976047</v>
+        <v>0.04314594795065343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.02672108731401</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H15">
-        <v>7.02672108731401</v>
+        <v>23.811736</v>
       </c>
       <c r="I15">
-        <v>0.1863261639207882</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J15">
-        <v>0.1863261639207882</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N15">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O15">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P15">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q15">
-        <v>25.44347481907935</v>
+        <v>28.80343784115199</v>
       </c>
       <c r="R15">
-        <v>25.44347481907935</v>
+        <v>259.2309405703679</v>
       </c>
       <c r="S15">
-        <v>0.0129101282210622</v>
+        <v>0.01224144499868255</v>
       </c>
       <c r="T15">
-        <v>0.0129101282210622</v>
+        <v>0.01224144499868255</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.02672108731401</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H16">
-        <v>7.02672108731401</v>
+        <v>23.811736</v>
       </c>
       <c r="I16">
-        <v>0.1863261639207882</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J16">
-        <v>0.1863261639207882</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N16">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O16">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P16">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q16">
-        <v>43.82220327221093</v>
+        <v>54.44780441616533</v>
       </c>
       <c r="R16">
-        <v>43.82220327221093</v>
+        <v>490.0302397454879</v>
       </c>
       <c r="S16">
-        <v>0.02223557384345374</v>
+        <v>0.02314028647327799</v>
       </c>
       <c r="T16">
-        <v>0.02223557384345374</v>
+        <v>0.02314028647327799</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.02672108731401</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H17">
-        <v>7.02672108731401</v>
+        <v>23.811736</v>
       </c>
       <c r="I17">
-        <v>0.1863261639207882</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J17">
-        <v>0.1863261639207882</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N17">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O17">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P17">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q17">
-        <v>75.56383196956544</v>
+        <v>86.6756609264462</v>
       </c>
       <c r="R17">
-        <v>75.56383196956544</v>
+        <v>780.0809483380158</v>
       </c>
       <c r="S17">
-        <v>0.03834141234790617</v>
+        <v>0.03683710749414882</v>
       </c>
       <c r="T17">
-        <v>0.03834141234790617</v>
+        <v>0.03683710749414881</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.02672108731401</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H18">
-        <v>7.02672108731401</v>
+        <v>23.811736</v>
       </c>
       <c r="I18">
-        <v>0.1863261639207882</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J18">
-        <v>0.1863261639207882</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N18">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O18">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P18">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q18">
-        <v>109.6331126611078</v>
+        <v>126.4317909127635</v>
       </c>
       <c r="R18">
-        <v>109.6331126611078</v>
+        <v>1137.886118214872</v>
       </c>
       <c r="S18">
-        <v>0.05562831145483742</v>
+        <v>0.05373344053855576</v>
       </c>
       <c r="T18">
-        <v>0.05562831145483742</v>
+        <v>0.05373344053855577</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.02672108731401</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H19">
-        <v>7.02672108731401</v>
+        <v>23.811736</v>
       </c>
       <c r="I19">
-        <v>0.1863261639207882</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J19">
-        <v>0.1863261639207882</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N19">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O19">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P19">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q19">
-        <v>47.39222840538803</v>
+        <v>66.28912673711467</v>
       </c>
       <c r="R19">
-        <v>47.39222840538803</v>
+        <v>596.602140634032</v>
       </c>
       <c r="S19">
-        <v>0.02404701990376818</v>
+        <v>0.0281728418475005</v>
       </c>
       <c r="T19">
-        <v>0.02404701990376818</v>
+        <v>0.0281728418475005</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.33948951786307</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H20">
-        <v>4.33948951786307</v>
+        <v>13.272464</v>
       </c>
       <c r="I20">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J20">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N20">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O20">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P20">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q20">
-        <v>40.36407559722814</v>
+        <v>56.58641143017066</v>
       </c>
       <c r="R20">
-        <v>40.36407559722814</v>
+        <v>509.277702871536</v>
       </c>
       <c r="S20">
-        <v>0.02048090503322686</v>
+        <v>0.02404919326003453</v>
       </c>
       <c r="T20">
-        <v>0.02048090503322686</v>
+        <v>0.02404919326003453</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.33948951786307</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H21">
-        <v>4.33948951786307</v>
+        <v>13.272464</v>
       </c>
       <c r="I21">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J21">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N21">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O21">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P21">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q21">
-        <v>15.71311724251362</v>
+        <v>16.054797173248</v>
       </c>
       <c r="R21">
-        <v>15.71311724251362</v>
+        <v>144.493174559232</v>
       </c>
       <c r="S21">
-        <v>0.007972903064376894</v>
+        <v>0.006823279833649855</v>
       </c>
       <c r="T21">
-        <v>0.007972903064376894</v>
+        <v>0.006823279833649855</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.33948951786307</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H22">
-        <v>4.33948951786307</v>
+        <v>13.272464</v>
       </c>
       <c r="I22">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J22">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N22">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O22">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P22">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q22">
-        <v>27.06326171003832</v>
+        <v>30.34875424423466</v>
       </c>
       <c r="R22">
-        <v>27.06326171003832</v>
+        <v>273.138788198112</v>
       </c>
       <c r="S22">
-        <v>0.01373201503494168</v>
+        <v>0.01289820360708976</v>
       </c>
       <c r="T22">
-        <v>0.01373201503494168</v>
+        <v>0.01289820360708976</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.33948951786307</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H23">
-        <v>4.33948951786307</v>
+        <v>13.272464</v>
       </c>
       <c r="I23">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J23">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N23">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O23">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P23">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q23">
-        <v>46.66592749120199</v>
+        <v>48.3122939596871</v>
       </c>
       <c r="R23">
-        <v>46.66592749120199</v>
+        <v>434.8106456371839</v>
       </c>
       <c r="S23">
-        <v>0.02367849170563916</v>
+        <v>0.02053269795533683</v>
       </c>
       <c r="T23">
-        <v>0.02367849170563916</v>
+        <v>0.02053269795533683</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.33948951786307</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H24">
-        <v>4.33948951786307</v>
+        <v>13.272464</v>
       </c>
       <c r="I24">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J24">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N24">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O24">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P24">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q24">
-        <v>67.7060804451876</v>
+        <v>70.47203082316977</v>
       </c>
       <c r="R24">
-        <v>67.7060804451876</v>
+        <v>634.248277408528</v>
       </c>
       <c r="S24">
-        <v>0.03435435553155912</v>
+        <v>0.02995057374834502</v>
       </c>
       <c r="T24">
-        <v>0.03435435553155912</v>
+        <v>0.02995057374834502</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.33948951786307</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H25">
-        <v>4.33948951786307</v>
+        <v>13.272464</v>
       </c>
       <c r="I25">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J25">
-        <v>0.1150693794716949</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N25">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O25">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P25">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q25">
-        <v>29.26800079835919</v>
+        <v>36.94900901848534</v>
       </c>
       <c r="R25">
-        <v>29.26800079835919</v>
+        <v>332.541081166368</v>
       </c>
       <c r="S25">
-        <v>0.0148507091019512</v>
+        <v>0.01570330820057151</v>
       </c>
       <c r="T25">
-        <v>0.0148507091019512</v>
+        <v>0.01570330820057151</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.17437859783556</v>
+        <v>6.203087666666668</v>
       </c>
       <c r="H26">
-        <v>6.17437859783556</v>
+        <v>18.609263</v>
       </c>
       <c r="I26">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="J26">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N26">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O26">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P26">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q26">
-        <v>57.43142908008888</v>
+        <v>79.33955688485968</v>
       </c>
       <c r="R26">
-        <v>57.43142908008888</v>
+        <v>714.0560119637371</v>
       </c>
       <c r="S26">
-        <v>0.02914095337272083</v>
+        <v>0.03371926737294672</v>
       </c>
       <c r="T26">
-        <v>0.02914095337272083</v>
+        <v>0.03371926737294673</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.17437859783556</v>
+        <v>6.203087666666668</v>
       </c>
       <c r="H27">
-        <v>6.17437859783556</v>
+        <v>18.609263</v>
       </c>
       <c r="I27">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="J27">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N27">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O27">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P27">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q27">
-        <v>22.35717690020662</v>
+        <v>22.510360021216</v>
       </c>
       <c r="R27">
-        <v>22.35717690020662</v>
+        <v>202.593240190944</v>
       </c>
       <c r="S27">
-        <v>0.01134412742343663</v>
+        <v>0.009566890439257278</v>
       </c>
       <c r="T27">
-        <v>0.01134412742343663</v>
+        <v>0.00956689043925728</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.17437859783556</v>
+        <v>6.203087666666668</v>
       </c>
       <c r="H28">
-        <v>6.17437859783556</v>
+        <v>18.609263</v>
       </c>
       <c r="I28">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="J28">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N28">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O28">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P28">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q28">
-        <v>38.50656239685285</v>
+        <v>42.55185393257267</v>
       </c>
       <c r="R28">
-        <v>38.50656239685285</v>
+        <v>382.966685393154</v>
       </c>
       <c r="S28">
-        <v>0.01953839487061424</v>
+        <v>0.01808451416043638</v>
       </c>
       <c r="T28">
-        <v>0.01953839487061424</v>
+        <v>0.01808451416043638</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.17437859783556</v>
+        <v>6.203087666666668</v>
       </c>
       <c r="H29">
-        <v>6.17437859783556</v>
+        <v>18.609263</v>
       </c>
       <c r="I29">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="J29">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N29">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O29">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P29">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q29">
-        <v>66.39792601497315</v>
+        <v>67.73845341973644</v>
       </c>
       <c r="R29">
-        <v>66.39792601497315</v>
+        <v>609.646080777628</v>
       </c>
       <c r="S29">
-        <v>0.03369059236449536</v>
+        <v>0.02878880487831238</v>
       </c>
       <c r="T29">
-        <v>0.03369059236449536</v>
+        <v>0.02878880487831238</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.17437859783556</v>
+        <v>6.203087666666668</v>
       </c>
       <c r="H30">
-        <v>6.17437859783556</v>
+        <v>18.609263</v>
       </c>
       <c r="I30">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="J30">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N30">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O30">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P30">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q30">
-        <v>96.33459703572674</v>
+        <v>98.80852234615013</v>
       </c>
       <c r="R30">
-        <v>96.33459703572674</v>
+        <v>889.2767011153511</v>
       </c>
       <c r="S30">
-        <v>0.04888058760444862</v>
+        <v>0.04199356682254692</v>
       </c>
       <c r="T30">
-        <v>0.04888058760444862</v>
+        <v>0.04199356682254692</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.17437859783556</v>
+        <v>6.203087666666668</v>
       </c>
       <c r="H31">
-        <v>6.17437859783556</v>
+        <v>18.609263</v>
       </c>
       <c r="I31">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="J31">
-        <v>0.1637247678446104</v>
+        <v>0.1541705825626232</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N31">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O31">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P31">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q31">
-        <v>41.64354286073086</v>
+        <v>51.80604192366735</v>
       </c>
       <c r="R31">
-        <v>41.64354286073086</v>
+        <v>466.2543773130061</v>
       </c>
       <c r="S31">
-        <v>0.02113011220889475</v>
+        <v>0.02201753888912353</v>
       </c>
       <c r="T31">
-        <v>0.02113011220889475</v>
+        <v>0.02201753888912353</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.17195334133222</v>
+        <v>5.236355333333333</v>
       </c>
       <c r="H32">
-        <v>5.17195334133222</v>
+        <v>15.709066</v>
       </c>
       <c r="I32">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="J32">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N32">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O32">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P32">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q32">
-        <v>48.1072980578767</v>
+        <v>66.97472841965933</v>
       </c>
       <c r="R32">
-        <v>48.1072980578767</v>
+        <v>602.7725557769339</v>
       </c>
       <c r="S32">
-        <v>0.02440984931155397</v>
+        <v>0.02846422217974277</v>
       </c>
       <c r="T32">
-        <v>0.02440984931155397</v>
+        <v>0.02846422217974278</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.17195334133222</v>
+        <v>5.236355333333333</v>
       </c>
       <c r="H33">
-        <v>5.17195334133222</v>
+        <v>15.709066</v>
       </c>
       <c r="I33">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="J33">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N33">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O33">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P33">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q33">
-        <v>18.7274353102211</v>
+        <v>19.002188923712</v>
       </c>
       <c r="R33">
-        <v>18.7274353102211</v>
+        <v>171.019700313408</v>
       </c>
       <c r="S33">
-        <v>0.009502380976882252</v>
+        <v>0.008075919681776841</v>
       </c>
       <c r="T33">
-        <v>0.009502380976882252</v>
+        <v>0.008075919681776842</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.17195334133222</v>
+        <v>5.236355333333333</v>
       </c>
       <c r="H34">
-        <v>5.17195334133222</v>
+        <v>15.709066</v>
       </c>
       <c r="I34">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="J34">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N34">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O34">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P34">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q34">
-        <v>32.2549291229784</v>
+        <v>35.92027700662533</v>
       </c>
       <c r="R34">
-        <v>32.2549291229784</v>
+        <v>323.282493059628</v>
       </c>
       <c r="S34">
-        <v>0.0163662893413704</v>
+        <v>0.0152660976699738</v>
       </c>
       <c r="T34">
-        <v>0.0163662893413704</v>
+        <v>0.0152660976699738</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.17195334133222</v>
+        <v>5.236355333333333</v>
       </c>
       <c r="H35">
-        <v>5.17195334133222</v>
+        <v>15.709066</v>
       </c>
       <c r="I35">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="J35">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N35">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O35">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P35">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q35">
-        <v>55.61806259030696</v>
+        <v>57.18162162083288</v>
       </c>
       <c r="R35">
-        <v>55.61806259030696</v>
+        <v>514.6345945874959</v>
       </c>
       <c r="S35">
-        <v>0.02822084344035785</v>
+        <v>0.02430215725870127</v>
       </c>
       <c r="T35">
-        <v>0.02822084344035785</v>
+        <v>0.02430215725870127</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.17195334133222</v>
+        <v>5.236355333333333</v>
       </c>
       <c r="H36">
-        <v>5.17195334133222</v>
+        <v>15.709066</v>
       </c>
       <c r="I36">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="J36">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N36">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O36">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P36">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q36">
-        <v>80.69444287065231</v>
+        <v>83.40951486892021</v>
       </c>
       <c r="R36">
-        <v>80.69444287065231</v>
+        <v>750.685633820282</v>
       </c>
       <c r="S36">
-        <v>0.04094470631841927</v>
+        <v>0.03544899724351253</v>
       </c>
       <c r="T36">
-        <v>0.04094470631841927</v>
+        <v>0.03544899724351253</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.17195334133222</v>
+        <v>5.236355333333333</v>
       </c>
       <c r="H37">
-        <v>5.17195334133222</v>
+        <v>15.709066</v>
       </c>
       <c r="I37">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="J37">
-        <v>0.137143656919518</v>
+        <v>0.1301435664988289</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N37">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O37">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P37">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q37">
-        <v>34.8826132428889</v>
+        <v>43.73222796505468</v>
       </c>
       <c r="R37">
-        <v>34.8826132428889</v>
+        <v>393.590051685492</v>
       </c>
       <c r="S37">
-        <v>0.01769958753093431</v>
+        <v>0.01858617246512171</v>
       </c>
       <c r="T37">
-        <v>0.01769958753093431</v>
+        <v>0.01858617246512171</v>
       </c>
     </row>
   </sheetData>
